--- a/docs/DB-Modeling/ver002-2024-03-14.xlsx
+++ b/docs/DB-Modeling/ver002-2024-03-14.xlsx
@@ -1413,37 +1413,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1453,21 +1422,52 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1680,8 +1680,8 @@
   </sheetPr>
   <dimension ref="A1:Y660"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1692,17 +1692,17 @@
     <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="12.75">
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" ht="12.75">
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" ht="12.75">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="M3" s="1"/>
@@ -1712,30 +1712,30 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="D4" s="48" t="s">
+      <c r="B4" s="55"/>
+      <c r="D4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="G4" s="47" t="s">
+      <c r="E4" s="53"/>
+      <c r="G4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="J4" s="40" t="s">
+      <c r="H4" s="55"/>
+      <c r="J4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="M4" s="49" t="s">
+      <c r="K4" s="53"/>
+      <c r="M4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="P4" s="49" t="s">
+      <c r="N4" s="55"/>
+      <c r="P4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="45"/>
+      <c r="Q4" s="55"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -2078,10 +2078,10 @@
         <v>51</v>
       </c>
       <c r="E15" s="14"/>
-      <c r="G15" s="48" t="s">
+      <c r="G15" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="41"/>
+      <c r="H15" s="53"/>
       <c r="L15" s="1"/>
       <c r="M15" s="8" t="s">
         <v>46</v>
@@ -2135,10 +2135,10 @@
       <c r="H17" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="40" t="s">
+      <c r="J17" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="41"/>
+      <c r="K17" s="53"/>
       <c r="L17" s="1"/>
       <c r="M17" s="8" t="s">
         <v>58</v>
@@ -2196,15 +2196,15 @@
         <v>10</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="49" t="s">
+      <c r="M19" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="N19" s="45"/>
+      <c r="N19" s="55"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="49" t="s">
+      <c r="P19" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="Q19" s="45"/>
+      <c r="Q19" s="55"/>
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1">
@@ -2213,10 +2213,10 @@
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="43"/>
+      <c r="E20" s="70"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="J20" s="4" t="s">
@@ -2247,10 +2247,10 @@
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="68"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="J21" s="4" t="s">
@@ -2279,10 +2279,10 @@
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="1"/>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="45"/>
+      <c r="H22" s="55"/>
       <c r="J22" s="4" t="s">
         <v>26</v>
       </c>
@@ -2326,10 +2326,10 @@
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1">
       <c r="C24" s="1"/>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="45"/>
+      <c r="E24" s="55"/>
       <c r="G24" s="26" t="s">
         <v>13</v>
       </c>
@@ -2356,10 +2356,10 @@
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
-      <c r="J25" s="40" t="s">
+      <c r="J25" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="K25" s="41"/>
+      <c r="K25" s="53"/>
       <c r="L25" s="1"/>
       <c r="M25" s="8" t="s">
         <v>77</v>
@@ -2373,10 +2373,10 @@
       <c r="T25" s="8"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="41"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="1"/>
       <c r="D26" s="32" t="s">
         <v>79</v>
@@ -2435,15 +2435,15 @@
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="45"/>
+      <c r="H28" s="55"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="38" t="s">
+      <c r="J28" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="K28" s="39"/>
+      <c r="K28" s="68"/>
       <c r="L28" s="28"/>
       <c r="O28" s="1"/>
     </row>
@@ -2478,10 +2478,10 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="22" t="s">
@@ -2503,17 +2503,17 @@
         <v>6</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="45"/>
+      <c r="E32" s="55"/>
       <c r="F32" s="1"/>
       <c r="G32" s="22" t="s">
         <v>93</v>
       </c>
       <c r="H32" s="36"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="54"/>
+      <c r="J32" s="39"/>
       <c r="M32" s="28"/>
       <c r="N32" s="28"/>
       <c r="O32" s="1"/>
@@ -2524,17 +2524,17 @@
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="53"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="1"/>
       <c r="G33" s="22" t="s">
         <v>95</v>
       </c>
       <c r="H33" s="36"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="54"/>
+      <c r="J33" s="39"/>
       <c r="M33" s="28"/>
       <c r="N33" s="28"/>
       <c r="O33" s="1"/>
@@ -2545,10 +2545,10 @@
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="53"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="1"/>
       <c r="G34" s="22" t="s">
         <v>97</v>
@@ -2609,15 +2609,15 @@
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="41"/>
+      <c r="E38" s="53"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="40" t="s">
+      <c r="G38" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="H38" s="41"/>
+      <c r="H38" s="53"/>
       <c r="I38" s="1"/>
       <c r="J38" s="28"/>
       <c r="M38" s="28"/>
@@ -2940,21 +2940,21 @@
       <c r="Y53" s="28"/>
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="D54" s="62" t="s">
+      <c r="B54" s="53"/>
+      <c r="D54" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="E54" s="63"/>
-      <c r="F54" s="58"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="43"/>
       <c r="G54" s="28"/>
-      <c r="H54" s="62" t="s">
+      <c r="H54" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="I54" s="69"/>
-      <c r="J54" s="70"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="58"/>
       <c r="K54" s="28"/>
       <c r="L54" s="28"/>
       <c r="M54" s="28"/>
@@ -2976,21 +2976,21 @@
       <c r="B55" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="64" t="s">
+      <c r="D55" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="E55" s="65" t="s">
+      <c r="E55" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="66"/>
+      <c r="F55" s="49"/>
       <c r="G55" s="28"/>
-      <c r="H55" s="59" t="s">
+      <c r="H55" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="I55" s="60" t="s">
+      <c r="I55" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J55" s="61" t="s">
+      <c r="J55" s="46" t="s">
         <v>14</v>
       </c>
       <c r="L55" s="28"/>
@@ -3007,19 +3007,19 @@
       <c r="Y55" s="28"/>
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A56" s="55" t="s">
+      <c r="A56" s="40" t="s">
         <v>128</v>
       </c>
       <c r="B56" s="21"/>
-      <c r="D56" s="59" t="s">
+      <c r="D56" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="E56" s="67" t="s">
+      <c r="E56" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="F56" s="68"/>
+      <c r="F56" s="51"/>
       <c r="G56" s="28"/>
-      <c r="H56" s="57"/>
+      <c r="H56" s="42"/>
       <c r="I56" s="28"/>
       <c r="L56" s="28"/>
       <c r="M56" s="28"/>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="28"/>
-      <c r="D57" s="56"/>
+      <c r="D57" s="41"/>
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
@@ -3296,10 +3296,10 @@
       <c r="Y71" s="28"/>
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="B72" s="45"/>
+      <c r="B72" s="55"/>
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
       <c r="E72" s="28"/>
@@ -3325,10 +3325,10 @@
       <c r="Y72" s="28"/>
     </row>
     <row r="73" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A73" s="52" t="s">
+      <c r="A73" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="B73" s="51"/>
+      <c r="B73" s="62"/>
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
       <c r="E73" s="28"/>
@@ -3354,8 +3354,8 @@
       <c r="Y73" s="28"/>
     </row>
     <row r="74" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A74" s="51"/>
-      <c r="B74" s="51"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="62"/>
       <c r="C74" s="28"/>
       <c r="D74" s="28"/>
       <c r="E74" s="28"/>
@@ -3381,8 +3381,8 @@
       <c r="Y74" s="28"/>
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A75" s="51"/>
-      <c r="B75" s="51"/>
+      <c r="A75" s="62"/>
+      <c r="B75" s="62"/>
       <c r="D75" s="28"/>
       <c r="G75" s="28"/>
       <c r="H75" s="28"/>
@@ -3405,8 +3405,8 @@
       <c r="Y75" s="28"/>
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A76" s="51"/>
-      <c r="B76" s="51"/>
+      <c r="A76" s="62"/>
+      <c r="B76" s="62"/>
       <c r="D76" s="28"/>
       <c r="G76" s="28"/>
       <c r="H76" s="28"/>
@@ -3429,8 +3429,8 @@
       <c r="Y76" s="28"/>
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A77" s="51"/>
-      <c r="B77" s="51"/>
+      <c r="A77" s="62"/>
+      <c r="B77" s="62"/>
       <c r="D77" s="28"/>
       <c r="G77" s="28"/>
       <c r="H77" s="28"/>
@@ -3453,8 +3453,8 @@
       <c r="Y77" s="28"/>
     </row>
     <row r="78" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A78" s="51"/>
-      <c r="B78" s="51"/>
+      <c r="A78" s="62"/>
+      <c r="B78" s="62"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
@@ -3480,8 +3480,8 @@
       <c r="Y78" s="28"/>
     </row>
     <row r="79" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A79" s="51"/>
-      <c r="B79" s="51"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="62"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
       <c r="E79" s="28"/>
@@ -3507,8 +3507,8 @@
       <c r="Y79" s="28"/>
     </row>
     <row r="80" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A80" s="51"/>
-      <c r="B80" s="51"/>
+      <c r="A80" s="62"/>
+      <c r="B80" s="62"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
       <c r="E80" s="28"/>
@@ -4039,7 +4039,7 @@
       <c r="X101" s="28"/>
       <c r="Y101" s="28"/>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" ht="12.75">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4056,7 +4056,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:25" ht="12.75">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4073,7 +4073,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:25" ht="12.75">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4090,7 +4090,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:25" ht="12.75">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4107,7 +4107,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:25" ht="12.75">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4124,7 +4124,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:25" ht="12.75">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4141,7 +4141,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:25" ht="12.75">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4158,7 +4158,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:25" ht="12.75">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4175,7 +4175,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" ht="12.75">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4192,7 +4192,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:25" ht="12.75">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4209,7 +4209,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:25" ht="12.75">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4226,7 +4226,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" ht="12.75">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4243,7 +4243,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" ht="12.75">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4260,7 +4260,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" ht="12.75">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4277,7 +4277,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" ht="12.75">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4294,7 +4294,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" ht="12.75">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4311,7 +4311,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" ht="12.75">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4328,7 +4328,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" ht="12.75">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4345,7 +4345,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" ht="12.75">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4362,7 +4362,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" ht="12.75">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4379,7 +4379,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" ht="12.75">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4396,7 +4396,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" ht="12.75">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4413,7 +4413,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" ht="12.75">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4430,7 +4430,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" ht="12.75">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4447,7 +4447,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" ht="12.75">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4464,7 +4464,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" ht="12.75">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4481,7 +4481,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" ht="12.75">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4498,7 +4498,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" ht="12.75">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4515,7 +4515,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" ht="12.75">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4532,7 +4532,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" ht="12.75">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4549,7 +4549,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" ht="12.75">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="23"/>
@@ -4566,7 +4566,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" ht="12.75">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4583,7 +4583,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" ht="12.75">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4600,7 +4600,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" ht="12.75">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4617,7 +4617,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" ht="12.75">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4634,7 +4634,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" ht="12.75">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4651,7 +4651,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" ht="12.75">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4668,7 +4668,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" ht="12.75">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4685,7 +4685,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" ht="12.75">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4702,7 +4702,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" ht="12.75">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4719,7 +4719,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" ht="12.75">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4736,7 +4736,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" ht="12.75">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4753,7 +4753,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" ht="12.75">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4770,7 +4770,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" ht="12.75">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4787,7 +4787,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" ht="12.75">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4804,7 +4804,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" ht="12.75">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4821,7 +4821,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" ht="12.75">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4838,7 +4838,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" ht="12.75">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4855,7 +4855,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" ht="12.75">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4872,7 +4872,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" ht="12.75">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4889,7 +4889,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" ht="12.75">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4906,7 +4906,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" ht="12.75">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4923,7 +4923,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" ht="12.75">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4940,7 +4940,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" ht="12.75">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4957,7 +4957,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" ht="12.75">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4974,7 +4974,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" ht="12.75">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4991,7 +4991,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" ht="12.75">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5008,7 +5008,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" ht="12.75">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5025,7 +5025,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" ht="12.75">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5042,7 +5042,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" ht="12.75">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5059,7 +5059,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" ht="12.75">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5076,7 +5076,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" ht="12.75">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5093,7 +5093,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" ht="12.75">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5110,7 +5110,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" ht="12.75">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5127,7 +5127,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" ht="12.75">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5144,7 +5144,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" ht="12.75">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5161,7 +5161,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" ht="12.75">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5178,7 +5178,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" ht="12.75">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5195,7 +5195,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" ht="12.75">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5212,7 +5212,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" ht="12.75">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5229,7 +5229,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" ht="12.75">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5246,7 +5246,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" ht="12.75">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5263,7 +5263,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" ht="12.75">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5280,7 +5280,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" ht="12.75">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5297,7 +5297,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" ht="12.75">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5314,7 +5314,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" ht="12.75">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5331,7 +5331,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" ht="12.75">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5348,7 +5348,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" ht="12.75">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5365,7 +5365,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" ht="12.75">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5382,7 +5382,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" ht="12.75">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5399,7 +5399,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" ht="12.75">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5416,7 +5416,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" ht="12.75">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5433,7 +5433,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" ht="12.75">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5450,7 +5450,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" ht="12.75">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5467,7 +5467,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" ht="12.75">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5484,7 +5484,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" ht="12.75">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5501,7 +5501,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" ht="12.75">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5518,7 +5518,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" ht="12.75">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5535,7 +5535,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" ht="12.75">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5552,7 +5552,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" ht="12.75">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5569,7 +5569,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" ht="12.75">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5586,7 +5586,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" ht="12.75">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5603,7 +5603,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" ht="12.75">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5620,7 +5620,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" ht="12.75">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5637,7 +5637,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" ht="12.75">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5654,7 +5654,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" ht="12.75">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5671,7 +5671,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" ht="12.75">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5688,7 +5688,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" ht="12.75">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5705,7 +5705,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" ht="12.75">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -5722,7 +5722,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" ht="12.75">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -5739,7 +5739,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" ht="12.75">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -5756,7 +5756,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" ht="12.75">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -5773,7 +5773,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" ht="12.75">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -5790,7 +5790,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" ht="12.75">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -5807,7 +5807,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" ht="12.75">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -5824,7 +5824,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:15" ht="12.75">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -5841,7 +5841,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" ht="12.75">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -5858,7 +5858,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" ht="12.75">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -5875,7 +5875,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" ht="12.75">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -5892,7 +5892,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" ht="12.75">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -5909,7 +5909,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" ht="12.75">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -5926,7 +5926,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" ht="12.75">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -5943,7 +5943,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" ht="12.75">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -5960,7 +5960,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" ht="12.75">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -5977,7 +5977,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" ht="12.75">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -5994,7 +5994,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" ht="12.75">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6011,7 +6011,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" ht="12.75">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6028,7 +6028,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" ht="12.75">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6045,7 +6045,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" ht="12.75">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6062,7 +6062,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:15" ht="12.75">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6079,7 +6079,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" ht="12.75">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6096,7 +6096,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" ht="12.75">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6113,7 +6113,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" ht="12.75">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6130,7 +6130,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" ht="12.75">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6147,7 +6147,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" ht="12.75">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6164,7 +6164,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" ht="12.75">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6181,7 +6181,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" ht="12.75">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6198,7 +6198,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" ht="12.75">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6215,7 +6215,7 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" ht="12.75">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -6232,7 +6232,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" ht="12.75">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -6249,7 +6249,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" ht="12.75">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -6266,7 +6266,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" ht="12.75">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -6283,7 +6283,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" ht="12.75">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -6300,7 +6300,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" ht="12.75">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -6317,7 +6317,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" ht="12.75">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -6334,7 +6334,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" ht="12.75">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -6351,7 +6351,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" ht="12.75">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -6368,7 +6368,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" ht="12.75">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -6385,7 +6385,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" ht="12.75">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -6402,7 +6402,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" ht="12.75">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -6419,7 +6419,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" ht="12.75">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -6436,7 +6436,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" ht="12.75">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -6453,7 +6453,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" ht="12.75">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -6470,7 +6470,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:15" ht="12.75">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -6487,7 +6487,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:15" ht="12.75">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -6504,7 +6504,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" ht="12.75">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -6521,7 +6521,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" ht="12.75">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -6538,7 +6538,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" ht="12.75">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -6555,7 +6555,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:15" ht="12.75">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -6572,7 +6572,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:15" ht="12.75">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -6589,7 +6589,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" ht="12.75">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -6606,7 +6606,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" ht="12.75">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -6623,7 +6623,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" ht="12.75">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -6640,7 +6640,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" ht="12.75">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -6657,7 +6657,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" ht="12.75">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -6674,7 +6674,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" ht="12.75">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -6691,7 +6691,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:15" ht="12.75">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -6708,7 +6708,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" ht="12.75">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -6725,7 +6725,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:15" ht="12.75">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -6742,7 +6742,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:15" ht="12.75">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -6759,7 +6759,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:15" ht="12.75">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -6776,7 +6776,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" ht="12.75">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -6793,7 +6793,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:15" ht="12.75">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -6810,7 +6810,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:15" ht="12.75">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -6827,7 +6827,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:15" ht="12.75">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -6844,7 +6844,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:15" ht="12.75">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -6861,7 +6861,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15">
+    <row r="268" spans="1:15" ht="12.75">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -6878,7 +6878,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:15" ht="12.75">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -6895,7 +6895,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15">
+    <row r="270" spans="1:15" ht="12.75">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -6912,7 +6912,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15">
+    <row r="271" spans="1:15" ht="12.75">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -6929,7 +6929,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15">
+    <row r="272" spans="1:15" ht="12.75">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -6946,7 +6946,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:15" ht="12.75">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -6963,7 +6963,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:15" ht="12.75">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -6980,7 +6980,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:15" ht="12.75">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -6997,7 +6997,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:15" ht="12.75">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -7014,7 +7014,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:15" ht="12.75">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -7031,7 +7031,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:15" ht="12.75">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -7048,7 +7048,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:15" ht="12.75">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -7065,7 +7065,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:15" ht="12.75">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -7082,7 +7082,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:15" ht="12.75">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -7099,7 +7099,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:15" ht="12.75">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -7116,7 +7116,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:15" ht="12.75">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -7133,7 +7133,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:15" ht="12.75">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -7150,7 +7150,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:15" ht="12.75">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -7167,7 +7167,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:15" ht="12.75">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -7184,7 +7184,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:15" ht="12.75">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -7201,7 +7201,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:15" ht="12.75">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -7218,7 +7218,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15">
+    <row r="289" spans="1:15" ht="12.75">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -7235,7 +7235,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15">
+    <row r="290" spans="1:15" ht="12.75">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -7252,7 +7252,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15">
+    <row r="291" spans="1:15" ht="12.75">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -7269,7 +7269,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15">
+    <row r="292" spans="1:15" ht="12.75">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -7286,7 +7286,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15">
+    <row r="293" spans="1:15" ht="12.75">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -7303,7 +7303,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15">
+    <row r="294" spans="1:15" ht="12.75">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -7320,7 +7320,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15">
+    <row r="295" spans="1:15" ht="12.75">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -7337,7 +7337,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15">
+    <row r="296" spans="1:15" ht="12.75">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -7354,7 +7354,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15">
+    <row r="297" spans="1:15" ht="12.75">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -7371,7 +7371,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15">
+    <row r="298" spans="1:15" ht="12.75">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -7388,7 +7388,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:15" ht="12.75">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -7405,7 +7405,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15">
+    <row r="300" spans="1:15" ht="12.75">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -7422,7 +7422,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15">
+    <row r="301" spans="1:15" ht="12.75">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -7439,7 +7439,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15">
+    <row r="302" spans="1:15" ht="12.75">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -7456,7 +7456,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15">
+    <row r="303" spans="1:15" ht="12.75">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -7473,7 +7473,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15">
+    <row r="304" spans="1:15" ht="12.75">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -7490,7 +7490,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15">
+    <row r="305" spans="1:15" ht="12.75">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -7507,7 +7507,7 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15">
+    <row r="306" spans="1:15" ht="12.75">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -7524,7 +7524,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15">
+    <row r="307" spans="1:15" ht="12.75">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -7541,7 +7541,7 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15">
+    <row r="308" spans="1:15" ht="12.75">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -7558,7 +7558,7 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15">
+    <row r="309" spans="1:15" ht="12.75">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -7575,7 +7575,7 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15">
+    <row r="310" spans="1:15" ht="12.75">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -7592,7 +7592,7 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15">
+    <row r="311" spans="1:15" ht="12.75">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -7609,7 +7609,7 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15">
+    <row r="312" spans="1:15" ht="12.75">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -7626,7 +7626,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15">
+    <row r="313" spans="1:15" ht="12.75">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -7643,7 +7643,7 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15">
+    <row r="314" spans="1:15" ht="12.75">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -7660,7 +7660,7 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15">
+    <row r="315" spans="1:15" ht="12.75">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -7677,7 +7677,7 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15">
+    <row r="316" spans="1:15" ht="12.75">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -7694,7 +7694,7 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15">
+    <row r="317" spans="1:15" ht="12.75">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -7711,7 +7711,7 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15">
+    <row r="318" spans="1:15" ht="12.75">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -7728,7 +7728,7 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15">
+    <row r="319" spans="1:15" ht="12.75">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -7745,7 +7745,7 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15">
+    <row r="320" spans="1:15" ht="12.75">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -7762,7 +7762,7 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15">
+    <row r="321" spans="1:15" ht="12.75">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -7779,7 +7779,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15">
+    <row r="322" spans="1:15" ht="12.75">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -7796,7 +7796,7 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15">
+    <row r="323" spans="1:15" ht="12.75">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -7813,7 +7813,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15">
+    <row r="324" spans="1:15" ht="12.75">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -7830,7 +7830,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15">
+    <row r="325" spans="1:15" ht="12.75">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -7847,7 +7847,7 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15">
+    <row r="326" spans="1:15" ht="12.75">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -7864,7 +7864,7 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15">
+    <row r="327" spans="1:15" ht="12.75">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -7881,7 +7881,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15">
+    <row r="328" spans="1:15" ht="12.75">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -7898,7 +7898,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15">
+    <row r="329" spans="1:15" ht="12.75">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -7915,7 +7915,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15">
+    <row r="330" spans="1:15" ht="12.75">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -7932,7 +7932,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15">
+    <row r="331" spans="1:15" ht="12.75">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -7949,7 +7949,7 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15">
+    <row r="332" spans="1:15" ht="12.75">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -7966,7 +7966,7 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15">
+    <row r="333" spans="1:15" ht="12.75">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -7983,7 +7983,7 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15">
+    <row r="334" spans="1:15" ht="12.75">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -8000,7 +8000,7 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15">
+    <row r="335" spans="1:15" ht="12.75">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -8017,7 +8017,7 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15">
+    <row r="336" spans="1:15" ht="12.75">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -8034,7 +8034,7 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15">
+    <row r="337" spans="1:15" ht="12.75">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -8051,7 +8051,7 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15">
+    <row r="338" spans="1:15" ht="12.75">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -8068,7 +8068,7 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15">
+    <row r="339" spans="1:15" ht="12.75">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -8085,7 +8085,7 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15">
+    <row r="340" spans="1:15" ht="12.75">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -8102,7 +8102,7 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15">
+    <row r="341" spans="1:15" ht="12.75">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -8119,7 +8119,7 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15">
+    <row r="342" spans="1:15" ht="12.75">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -8136,7 +8136,7 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15">
+    <row r="343" spans="1:15" ht="12.75">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -8153,7 +8153,7 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15">
+    <row r="344" spans="1:15" ht="12.75">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -8170,7 +8170,7 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15">
+    <row r="345" spans="1:15" ht="12.75">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -8187,7 +8187,7 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15">
+    <row r="346" spans="1:15" ht="12.75">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -8204,7 +8204,7 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15">
+    <row r="347" spans="1:15" ht="12.75">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -8221,7 +8221,7 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15">
+    <row r="348" spans="1:15" ht="12.75">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -8238,7 +8238,7 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15">
+    <row r="349" spans="1:15" ht="12.75">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -8255,7 +8255,7 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15">
+    <row r="350" spans="1:15" ht="12.75">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -8272,7 +8272,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15">
+    <row r="351" spans="1:15" ht="12.75">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -8289,7 +8289,7 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="1:15">
+    <row r="352" spans="1:15" ht="12.75">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -8306,7 +8306,7 @@
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
     </row>
-    <row r="353" spans="1:15">
+    <row r="353" spans="1:15" ht="12.75">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -8323,7 +8323,7 @@
       <c r="N353" s="1"/>
       <c r="O353" s="1"/>
     </row>
-    <row r="354" spans="1:15">
+    <row r="354" spans="1:15" ht="12.75">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -8340,7 +8340,7 @@
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
     </row>
-    <row r="355" spans="1:15">
+    <row r="355" spans="1:15" ht="12.75">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -8357,7 +8357,7 @@
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
     </row>
-    <row r="356" spans="1:15">
+    <row r="356" spans="1:15" ht="12.75">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -8374,7 +8374,7 @@
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
     </row>
-    <row r="357" spans="1:15">
+    <row r="357" spans="1:15" ht="12.75">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -8391,7 +8391,7 @@
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
     </row>
-    <row r="358" spans="1:15">
+    <row r="358" spans="1:15" ht="12.75">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -8408,7 +8408,7 @@
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
     </row>
-    <row r="359" spans="1:15">
+    <row r="359" spans="1:15" ht="12.75">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -8425,7 +8425,7 @@
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
     </row>
-    <row r="360" spans="1:15">
+    <row r="360" spans="1:15" ht="12.75">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -8442,7 +8442,7 @@
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
     </row>
-    <row r="361" spans="1:15">
+    <row r="361" spans="1:15" ht="12.75">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -8459,7 +8459,7 @@
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
     </row>
-    <row r="362" spans="1:15">
+    <row r="362" spans="1:15" ht="12.75">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -8476,7 +8476,7 @@
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
     </row>
-    <row r="363" spans="1:15">
+    <row r="363" spans="1:15" ht="12.75">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -8493,7 +8493,7 @@
       <c r="N363" s="1"/>
       <c r="O363" s="1"/>
     </row>
-    <row r="364" spans="1:15">
+    <row r="364" spans="1:15" ht="12.75">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -8510,7 +8510,7 @@
       <c r="N364" s="1"/>
       <c r="O364" s="1"/>
     </row>
-    <row r="365" spans="1:15">
+    <row r="365" spans="1:15" ht="12.75">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -8527,7 +8527,7 @@
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
     </row>
-    <row r="366" spans="1:15">
+    <row r="366" spans="1:15" ht="12.75">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -8544,7 +8544,7 @@
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
     </row>
-    <row r="367" spans="1:15">
+    <row r="367" spans="1:15" ht="12.75">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -8561,7 +8561,7 @@
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
     </row>
-    <row r="368" spans="1:15">
+    <row r="368" spans="1:15" ht="12.75">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -8578,7 +8578,7 @@
       <c r="N368" s="1"/>
       <c r="O368" s="1"/>
     </row>
-    <row r="369" spans="1:15">
+    <row r="369" spans="1:15" ht="12.75">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -8595,7 +8595,7 @@
       <c r="N369" s="1"/>
       <c r="O369" s="1"/>
     </row>
-    <row r="370" spans="1:15">
+    <row r="370" spans="1:15" ht="12.75">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -8612,7 +8612,7 @@
       <c r="N370" s="1"/>
       <c r="O370" s="1"/>
     </row>
-    <row r="371" spans="1:15">
+    <row r="371" spans="1:15" ht="12.75">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -8629,7 +8629,7 @@
       <c r="N371" s="1"/>
       <c r="O371" s="1"/>
     </row>
-    <row r="372" spans="1:15">
+    <row r="372" spans="1:15" ht="12.75">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -8646,7 +8646,7 @@
       <c r="N372" s="1"/>
       <c r="O372" s="1"/>
     </row>
-    <row r="373" spans="1:15">
+    <row r="373" spans="1:15" ht="12.75">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -8663,7 +8663,7 @@
       <c r="N373" s="1"/>
       <c r="O373" s="1"/>
     </row>
-    <row r="374" spans="1:15">
+    <row r="374" spans="1:15" ht="12.75">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -8680,7 +8680,7 @@
       <c r="N374" s="1"/>
       <c r="O374" s="1"/>
     </row>
-    <row r="375" spans="1:15">
+    <row r="375" spans="1:15" ht="12.75">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -8697,7 +8697,7 @@
       <c r="N375" s="1"/>
       <c r="O375" s="1"/>
     </row>
-    <row r="376" spans="1:15">
+    <row r="376" spans="1:15" ht="12.75">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -8714,7 +8714,7 @@
       <c r="N376" s="1"/>
       <c r="O376" s="1"/>
     </row>
-    <row r="377" spans="1:15">
+    <row r="377" spans="1:15" ht="12.75">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -8731,7 +8731,7 @@
       <c r="N377" s="1"/>
       <c r="O377" s="1"/>
     </row>
-    <row r="378" spans="1:15">
+    <row r="378" spans="1:15" ht="12.75">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -8748,7 +8748,7 @@
       <c r="N378" s="1"/>
       <c r="O378" s="1"/>
     </row>
-    <row r="379" spans="1:15">
+    <row r="379" spans="1:15" ht="12.75">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -8765,7 +8765,7 @@
       <c r="N379" s="1"/>
       <c r="O379" s="1"/>
     </row>
-    <row r="380" spans="1:15">
+    <row r="380" spans="1:15" ht="12.75">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -8782,7 +8782,7 @@
       <c r="N380" s="1"/>
       <c r="O380" s="1"/>
     </row>
-    <row r="381" spans="1:15">
+    <row r="381" spans="1:15" ht="12.75">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -8799,7 +8799,7 @@
       <c r="N381" s="1"/>
       <c r="O381" s="1"/>
     </row>
-    <row r="382" spans="1:15">
+    <row r="382" spans="1:15" ht="12.75">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -8816,7 +8816,7 @@
       <c r="N382" s="1"/>
       <c r="O382" s="1"/>
     </row>
-    <row r="383" spans="1:15">
+    <row r="383" spans="1:15" ht="12.75">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -8833,7 +8833,7 @@
       <c r="N383" s="1"/>
       <c r="O383" s="1"/>
     </row>
-    <row r="384" spans="1:15">
+    <row r="384" spans="1:15" ht="12.75">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -8850,7 +8850,7 @@
       <c r="N384" s="1"/>
       <c r="O384" s="1"/>
     </row>
-    <row r="385" spans="1:15">
+    <row r="385" spans="1:15" ht="12.75">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -8867,7 +8867,7 @@
       <c r="N385" s="1"/>
       <c r="O385" s="1"/>
     </row>
-    <row r="386" spans="1:15">
+    <row r="386" spans="1:15" ht="12.75">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -8884,7 +8884,7 @@
       <c r="N386" s="1"/>
       <c r="O386" s="1"/>
     </row>
-    <row r="387" spans="1:15">
+    <row r="387" spans="1:15" ht="12.75">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -8901,7 +8901,7 @@
       <c r="N387" s="1"/>
       <c r="O387" s="1"/>
     </row>
-    <row r="388" spans="1:15">
+    <row r="388" spans="1:15" ht="12.75">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -8918,7 +8918,7 @@
       <c r="N388" s="1"/>
       <c r="O388" s="1"/>
     </row>
-    <row r="389" spans="1:15">
+    <row r="389" spans="1:15" ht="12.75">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -8935,7 +8935,7 @@
       <c r="N389" s="1"/>
       <c r="O389" s="1"/>
     </row>
-    <row r="390" spans="1:15">
+    <row r="390" spans="1:15" ht="12.75">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -8952,7 +8952,7 @@
       <c r="N390" s="1"/>
       <c r="O390" s="1"/>
     </row>
-    <row r="391" spans="1:15">
+    <row r="391" spans="1:15" ht="12.75">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -8969,7 +8969,7 @@
       <c r="N391" s="1"/>
       <c r="O391" s="1"/>
     </row>
-    <row r="392" spans="1:15">
+    <row r="392" spans="1:15" ht="12.75">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -8986,7 +8986,7 @@
       <c r="N392" s="1"/>
       <c r="O392" s="1"/>
     </row>
-    <row r="393" spans="1:15">
+    <row r="393" spans="1:15" ht="12.75">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -9003,7 +9003,7 @@
       <c r="N393" s="1"/>
       <c r="O393" s="1"/>
     </row>
-    <row r="394" spans="1:15">
+    <row r="394" spans="1:15" ht="12.75">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -9020,7 +9020,7 @@
       <c r="N394" s="1"/>
       <c r="O394" s="1"/>
     </row>
-    <row r="395" spans="1:15">
+    <row r="395" spans="1:15" ht="12.75">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -9037,7 +9037,7 @@
       <c r="N395" s="1"/>
       <c r="O395" s="1"/>
     </row>
-    <row r="396" spans="1:15">
+    <row r="396" spans="1:15" ht="12.75">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -9054,7 +9054,7 @@
       <c r="N396" s="1"/>
       <c r="O396" s="1"/>
     </row>
-    <row r="397" spans="1:15">
+    <row r="397" spans="1:15" ht="12.75">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -9071,7 +9071,7 @@
       <c r="N397" s="1"/>
       <c r="O397" s="1"/>
     </row>
-    <row r="398" spans="1:15">
+    <row r="398" spans="1:15" ht="12.75">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -9088,7 +9088,7 @@
       <c r="N398" s="1"/>
       <c r="O398" s="1"/>
     </row>
-    <row r="399" spans="1:15">
+    <row r="399" spans="1:15" ht="12.75">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -9105,7 +9105,7 @@
       <c r="N399" s="1"/>
       <c r="O399" s="1"/>
     </row>
-    <row r="400" spans="1:15">
+    <row r="400" spans="1:15" ht="12.75">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -9122,7 +9122,7 @@
       <c r="N400" s="1"/>
       <c r="O400" s="1"/>
     </row>
-    <row r="401" spans="1:15">
+    <row r="401" spans="1:15" ht="12.75">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -9139,7 +9139,7 @@
       <c r="N401" s="1"/>
       <c r="O401" s="1"/>
     </row>
-    <row r="402" spans="1:15">
+    <row r="402" spans="1:15" ht="12.75">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -9156,7 +9156,7 @@
       <c r="N402" s="1"/>
       <c r="O402" s="1"/>
     </row>
-    <row r="403" spans="1:15">
+    <row r="403" spans="1:15" ht="12.75">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -9173,7 +9173,7 @@
       <c r="N403" s="1"/>
       <c r="O403" s="1"/>
     </row>
-    <row r="404" spans="1:15">
+    <row r="404" spans="1:15" ht="12.75">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -9190,7 +9190,7 @@
       <c r="N404" s="1"/>
       <c r="O404" s="1"/>
     </row>
-    <row r="405" spans="1:15">
+    <row r="405" spans="1:15" ht="12.75">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -9207,7 +9207,7 @@
       <c r="N405" s="1"/>
       <c r="O405" s="1"/>
     </row>
-    <row r="406" spans="1:15">
+    <row r="406" spans="1:15" ht="12.75">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -9224,7 +9224,7 @@
       <c r="N406" s="1"/>
       <c r="O406" s="1"/>
     </row>
-    <row r="407" spans="1:15">
+    <row r="407" spans="1:15" ht="12.75">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -9241,7 +9241,7 @@
       <c r="N407" s="1"/>
       <c r="O407" s="1"/>
     </row>
-    <row r="408" spans="1:15">
+    <row r="408" spans="1:15" ht="12.75">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -9258,7 +9258,7 @@
       <c r="N408" s="1"/>
       <c r="O408" s="1"/>
     </row>
-    <row r="409" spans="1:15">
+    <row r="409" spans="1:15" ht="12.75">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -9275,7 +9275,7 @@
       <c r="N409" s="1"/>
       <c r="O409" s="1"/>
     </row>
-    <row r="410" spans="1:15">
+    <row r="410" spans="1:15" ht="12.75">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -9292,7 +9292,7 @@
       <c r="N410" s="1"/>
       <c r="O410" s="1"/>
     </row>
-    <row r="411" spans="1:15">
+    <row r="411" spans="1:15" ht="12.75">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -9309,7 +9309,7 @@
       <c r="N411" s="1"/>
       <c r="O411" s="1"/>
     </row>
-    <row r="412" spans="1:15">
+    <row r="412" spans="1:15" ht="12.75">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -9326,7 +9326,7 @@
       <c r="N412" s="1"/>
       <c r="O412" s="1"/>
     </row>
-    <row r="413" spans="1:15">
+    <row r="413" spans="1:15" ht="12.75">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -9343,7 +9343,7 @@
       <c r="N413" s="1"/>
       <c r="O413" s="1"/>
     </row>
-    <row r="414" spans="1:15">
+    <row r="414" spans="1:15" ht="12.75">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -9360,7 +9360,7 @@
       <c r="N414" s="1"/>
       <c r="O414" s="1"/>
     </row>
-    <row r="415" spans="1:15">
+    <row r="415" spans="1:15" ht="12.75">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -9377,7 +9377,7 @@
       <c r="N415" s="1"/>
       <c r="O415" s="1"/>
     </row>
-    <row r="416" spans="1:15">
+    <row r="416" spans="1:15" ht="12.75">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -9394,7 +9394,7 @@
       <c r="N416" s="1"/>
       <c r="O416" s="1"/>
     </row>
-    <row r="417" spans="1:15">
+    <row r="417" spans="1:15" ht="12.75">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -9411,7 +9411,7 @@
       <c r="N417" s="1"/>
       <c r="O417" s="1"/>
     </row>
-    <row r="418" spans="1:15">
+    <row r="418" spans="1:15" ht="12.75">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -9428,7 +9428,7 @@
       <c r="N418" s="1"/>
       <c r="O418" s="1"/>
     </row>
-    <row r="419" spans="1:15">
+    <row r="419" spans="1:15" ht="12.75">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -9445,7 +9445,7 @@
       <c r="N419" s="1"/>
       <c r="O419" s="1"/>
     </row>
-    <row r="420" spans="1:15">
+    <row r="420" spans="1:15" ht="12.75">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -9462,7 +9462,7 @@
       <c r="N420" s="1"/>
       <c r="O420" s="1"/>
     </row>
-    <row r="421" spans="1:15">
+    <row r="421" spans="1:15" ht="12.75">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -9479,7 +9479,7 @@
       <c r="N421" s="1"/>
       <c r="O421" s="1"/>
     </row>
-    <row r="422" spans="1:15">
+    <row r="422" spans="1:15" ht="12.75">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -9496,7 +9496,7 @@
       <c r="N422" s="1"/>
       <c r="O422" s="1"/>
     </row>
-    <row r="423" spans="1:15">
+    <row r="423" spans="1:15" ht="12.75">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -9513,7 +9513,7 @@
       <c r="N423" s="1"/>
       <c r="O423" s="1"/>
     </row>
-    <row r="424" spans="1:15">
+    <row r="424" spans="1:15" ht="12.75">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -9530,7 +9530,7 @@
       <c r="N424" s="1"/>
       <c r="O424" s="1"/>
     </row>
-    <row r="425" spans="1:15">
+    <row r="425" spans="1:15" ht="12.75">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -9547,7 +9547,7 @@
       <c r="N425" s="1"/>
       <c r="O425" s="1"/>
     </row>
-    <row r="426" spans="1:15">
+    <row r="426" spans="1:15" ht="12.75">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -9564,7 +9564,7 @@
       <c r="N426" s="1"/>
       <c r="O426" s="1"/>
     </row>
-    <row r="427" spans="1:15">
+    <row r="427" spans="1:15" ht="12.75">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -9581,7 +9581,7 @@
       <c r="N427" s="1"/>
       <c r="O427" s="1"/>
     </row>
-    <row r="428" spans="1:15">
+    <row r="428" spans="1:15" ht="12.75">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -9598,7 +9598,7 @@
       <c r="N428" s="1"/>
       <c r="O428" s="1"/>
     </row>
-    <row r="429" spans="1:15">
+    <row r="429" spans="1:15" ht="12.75">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -9615,7 +9615,7 @@
       <c r="N429" s="1"/>
       <c r="O429" s="1"/>
     </row>
-    <row r="430" spans="1:15">
+    <row r="430" spans="1:15" ht="12.75">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -9632,7 +9632,7 @@
       <c r="N430" s="1"/>
       <c r="O430" s="1"/>
     </row>
-    <row r="431" spans="1:15">
+    <row r="431" spans="1:15" ht="12.75">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -9649,7 +9649,7 @@
       <c r="N431" s="1"/>
       <c r="O431" s="1"/>
     </row>
-    <row r="432" spans="1:15">
+    <row r="432" spans="1:15" ht="12.75">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -9666,7 +9666,7 @@
       <c r="N432" s="1"/>
       <c r="O432" s="1"/>
     </row>
-    <row r="433" spans="1:15">
+    <row r="433" spans="1:15" ht="12.75">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -9683,7 +9683,7 @@
       <c r="N433" s="1"/>
       <c r="O433" s="1"/>
     </row>
-    <row r="434" spans="1:15">
+    <row r="434" spans="1:15" ht="12.75">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -9700,7 +9700,7 @@
       <c r="N434" s="1"/>
       <c r="O434" s="1"/>
     </row>
-    <row r="435" spans="1:15">
+    <row r="435" spans="1:15" ht="12.75">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -9717,7 +9717,7 @@
       <c r="N435" s="1"/>
       <c r="O435" s="1"/>
     </row>
-    <row r="436" spans="1:15">
+    <row r="436" spans="1:15" ht="12.75">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -9734,7 +9734,7 @@
       <c r="N436" s="1"/>
       <c r="O436" s="1"/>
     </row>
-    <row r="437" spans="1:15">
+    <row r="437" spans="1:15" ht="12.75">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -9751,7 +9751,7 @@
       <c r="N437" s="1"/>
       <c r="O437" s="1"/>
     </row>
-    <row r="438" spans="1:15">
+    <row r="438" spans="1:15" ht="12.75">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -9768,7 +9768,7 @@
       <c r="N438" s="1"/>
       <c r="O438" s="1"/>
     </row>
-    <row r="439" spans="1:15">
+    <row r="439" spans="1:15" ht="12.75">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -9785,7 +9785,7 @@
       <c r="N439" s="1"/>
       <c r="O439" s="1"/>
     </row>
-    <row r="440" spans="1:15">
+    <row r="440" spans="1:15" ht="12.75">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -9802,7 +9802,7 @@
       <c r="N440" s="1"/>
       <c r="O440" s="1"/>
     </row>
-    <row r="441" spans="1:15">
+    <row r="441" spans="1:15" ht="12.75">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -9819,7 +9819,7 @@
       <c r="N441" s="1"/>
       <c r="O441" s="1"/>
     </row>
-    <row r="442" spans="1:15">
+    <row r="442" spans="1:15" ht="12.75">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -9836,7 +9836,7 @@
       <c r="N442" s="1"/>
       <c r="O442" s="1"/>
     </row>
-    <row r="443" spans="1:15">
+    <row r="443" spans="1:15" ht="12.75">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -9853,7 +9853,7 @@
       <c r="N443" s="1"/>
       <c r="O443" s="1"/>
     </row>
-    <row r="444" spans="1:15">
+    <row r="444" spans="1:15" ht="12.75">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -9870,7 +9870,7 @@
       <c r="N444" s="1"/>
       <c r="O444" s="1"/>
     </row>
-    <row r="445" spans="1:15">
+    <row r="445" spans="1:15" ht="12.75">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -9887,7 +9887,7 @@
       <c r="N445" s="1"/>
       <c r="O445" s="1"/>
     </row>
-    <row r="446" spans="1:15">
+    <row r="446" spans="1:15" ht="12.75">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -9904,7 +9904,7 @@
       <c r="N446" s="1"/>
       <c r="O446" s="1"/>
     </row>
-    <row r="447" spans="1:15">
+    <row r="447" spans="1:15" ht="12.75">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -9921,7 +9921,7 @@
       <c r="N447" s="1"/>
       <c r="O447" s="1"/>
     </row>
-    <row r="448" spans="1:15">
+    <row r="448" spans="1:15" ht="12.75">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -9938,7 +9938,7 @@
       <c r="N448" s="1"/>
       <c r="O448" s="1"/>
     </row>
-    <row r="449" spans="1:15">
+    <row r="449" spans="1:15" ht="12.75">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -9955,7 +9955,7 @@
       <c r="N449" s="1"/>
       <c r="O449" s="1"/>
     </row>
-    <row r="450" spans="1:15">
+    <row r="450" spans="1:15" ht="12.75">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -9972,7 +9972,7 @@
       <c r="N450" s="1"/>
       <c r="O450" s="1"/>
     </row>
-    <row r="451" spans="1:15">
+    <row r="451" spans="1:15" ht="12.75">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -9989,7 +9989,7 @@
       <c r="N451" s="1"/>
       <c r="O451" s="1"/>
     </row>
-    <row r="452" spans="1:15">
+    <row r="452" spans="1:15" ht="12.75">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -10006,7 +10006,7 @@
       <c r="N452" s="1"/>
       <c r="O452" s="1"/>
     </row>
-    <row r="453" spans="1:15">
+    <row r="453" spans="1:15" ht="12.75">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -10023,7 +10023,7 @@
       <c r="N453" s="1"/>
       <c r="O453" s="1"/>
     </row>
-    <row r="454" spans="1:15">
+    <row r="454" spans="1:15" ht="12.75">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -10040,7 +10040,7 @@
       <c r="N454" s="1"/>
       <c r="O454" s="1"/>
     </row>
-    <row r="455" spans="1:15">
+    <row r="455" spans="1:15" ht="12.75">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -10057,7 +10057,7 @@
       <c r="N455" s="1"/>
       <c r="O455" s="1"/>
     </row>
-    <row r="456" spans="1:15">
+    <row r="456" spans="1:15" ht="12.75">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -10074,7 +10074,7 @@
       <c r="N456" s="1"/>
       <c r="O456" s="1"/>
     </row>
-    <row r="457" spans="1:15">
+    <row r="457" spans="1:15" ht="12.75">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -10091,7 +10091,7 @@
       <c r="N457" s="1"/>
       <c r="O457" s="1"/>
     </row>
-    <row r="458" spans="1:15">
+    <row r="458" spans="1:15" ht="12.75">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -10108,7 +10108,7 @@
       <c r="N458" s="1"/>
       <c r="O458" s="1"/>
     </row>
-    <row r="459" spans="1:15">
+    <row r="459" spans="1:15" ht="12.75">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -10125,7 +10125,7 @@
       <c r="N459" s="1"/>
       <c r="O459" s="1"/>
     </row>
-    <row r="460" spans="1:15">
+    <row r="460" spans="1:15" ht="12.75">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -10142,7 +10142,7 @@
       <c r="N460" s="1"/>
       <c r="O460" s="1"/>
     </row>
-    <row r="461" spans="1:15">
+    <row r="461" spans="1:15" ht="12.75">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -10159,7 +10159,7 @@
       <c r="N461" s="1"/>
       <c r="O461" s="1"/>
     </row>
-    <row r="462" spans="1:15">
+    <row r="462" spans="1:15" ht="12.75">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -10176,7 +10176,7 @@
       <c r="N462" s="1"/>
       <c r="O462" s="1"/>
     </row>
-    <row r="463" spans="1:15">
+    <row r="463" spans="1:15" ht="12.75">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -10193,7 +10193,7 @@
       <c r="N463" s="1"/>
       <c r="O463" s="1"/>
     </row>
-    <row r="464" spans="1:15">
+    <row r="464" spans="1:15" ht="12.75">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -10210,7 +10210,7 @@
       <c r="N464" s="1"/>
       <c r="O464" s="1"/>
     </row>
-    <row r="465" spans="1:15">
+    <row r="465" spans="1:15" ht="12.75">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -10227,7 +10227,7 @@
       <c r="N465" s="1"/>
       <c r="O465" s="1"/>
     </row>
-    <row r="466" spans="1:15">
+    <row r="466" spans="1:15" ht="12.75">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -10244,7 +10244,7 @@
       <c r="N466" s="1"/>
       <c r="O466" s="1"/>
     </row>
-    <row r="467" spans="1:15">
+    <row r="467" spans="1:15" ht="12.75">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -10261,7 +10261,7 @@
       <c r="N467" s="1"/>
       <c r="O467" s="1"/>
     </row>
-    <row r="468" spans="1:15">
+    <row r="468" spans="1:15" ht="12.75">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -10278,7 +10278,7 @@
       <c r="N468" s="1"/>
       <c r="O468" s="1"/>
     </row>
-    <row r="469" spans="1:15">
+    <row r="469" spans="1:15" ht="12.75">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -10295,7 +10295,7 @@
       <c r="N469" s="1"/>
       <c r="O469" s="1"/>
     </row>
-    <row r="470" spans="1:15">
+    <row r="470" spans="1:15" ht="12.75">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -10312,7 +10312,7 @@
       <c r="N470" s="1"/>
       <c r="O470" s="1"/>
     </row>
-    <row r="471" spans="1:15">
+    <row r="471" spans="1:15" ht="12.75">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -10329,7 +10329,7 @@
       <c r="N471" s="1"/>
       <c r="O471" s="1"/>
     </row>
-    <row r="472" spans="1:15">
+    <row r="472" spans="1:15" ht="12.75">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -10346,7 +10346,7 @@
       <c r="N472" s="1"/>
       <c r="O472" s="1"/>
     </row>
-    <row r="473" spans="1:15">
+    <row r="473" spans="1:15" ht="12.75">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -10363,7 +10363,7 @@
       <c r="N473" s="1"/>
       <c r="O473" s="1"/>
     </row>
-    <row r="474" spans="1:15">
+    <row r="474" spans="1:15" ht="12.75">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -10380,7 +10380,7 @@
       <c r="N474" s="1"/>
       <c r="O474" s="1"/>
     </row>
-    <row r="475" spans="1:15">
+    <row r="475" spans="1:15" ht="12.75">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -10397,7 +10397,7 @@
       <c r="N475" s="1"/>
       <c r="O475" s="1"/>
     </row>
-    <row r="476" spans="1:15">
+    <row r="476" spans="1:15" ht="12.75">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -10414,7 +10414,7 @@
       <c r="N476" s="1"/>
       <c r="O476" s="1"/>
     </row>
-    <row r="477" spans="1:15">
+    <row r="477" spans="1:15" ht="12.75">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -10431,7 +10431,7 @@
       <c r="N477" s="1"/>
       <c r="O477" s="1"/>
     </row>
-    <row r="478" spans="1:15">
+    <row r="478" spans="1:15" ht="12.75">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -10448,7 +10448,7 @@
       <c r="N478" s="1"/>
       <c r="O478" s="1"/>
     </row>
-    <row r="479" spans="1:15">
+    <row r="479" spans="1:15" ht="12.75">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -10465,7 +10465,7 @@
       <c r="N479" s="1"/>
       <c r="O479" s="1"/>
     </row>
-    <row r="480" spans="1:15">
+    <row r="480" spans="1:15" ht="12.75">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -10482,7 +10482,7 @@
       <c r="N480" s="1"/>
       <c r="O480" s="1"/>
     </row>
-    <row r="481" spans="1:15">
+    <row r="481" spans="1:15" ht="12.75">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -10499,7 +10499,7 @@
       <c r="N481" s="1"/>
       <c r="O481" s="1"/>
     </row>
-    <row r="482" spans="1:15">
+    <row r="482" spans="1:15" ht="12.75">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -10516,7 +10516,7 @@
       <c r="N482" s="1"/>
       <c r="O482" s="1"/>
     </row>
-    <row r="483" spans="1:15">
+    <row r="483" spans="1:15" ht="12.75">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -10533,7 +10533,7 @@
       <c r="N483" s="1"/>
       <c r="O483" s="1"/>
     </row>
-    <row r="484" spans="1:15">
+    <row r="484" spans="1:15" ht="12.75">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -10550,7 +10550,7 @@
       <c r="N484" s="1"/>
       <c r="O484" s="1"/>
     </row>
-    <row r="485" spans="1:15">
+    <row r="485" spans="1:15" ht="12.75">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -10567,7 +10567,7 @@
       <c r="N485" s="1"/>
       <c r="O485" s="1"/>
     </row>
-    <row r="486" spans="1:15">
+    <row r="486" spans="1:15" ht="12.75">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -10584,7 +10584,7 @@
       <c r="N486" s="1"/>
       <c r="O486" s="1"/>
     </row>
-    <row r="487" spans="1:15">
+    <row r="487" spans="1:15" ht="12.75">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -10601,7 +10601,7 @@
       <c r="N487" s="1"/>
       <c r="O487" s="1"/>
     </row>
-    <row r="488" spans="1:15">
+    <row r="488" spans="1:15" ht="12.75">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -10618,7 +10618,7 @@
       <c r="N488" s="1"/>
       <c r="O488" s="1"/>
     </row>
-    <row r="489" spans="1:15">
+    <row r="489" spans="1:15" ht="12.75">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -10635,7 +10635,7 @@
       <c r="N489" s="1"/>
       <c r="O489" s="1"/>
     </row>
-    <row r="490" spans="1:15">
+    <row r="490" spans="1:15" ht="12.75">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -10652,7 +10652,7 @@
       <c r="N490" s="1"/>
       <c r="O490" s="1"/>
     </row>
-    <row r="491" spans="1:15">
+    <row r="491" spans="1:15" ht="12.75">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -10669,7 +10669,7 @@
       <c r="N491" s="1"/>
       <c r="O491" s="1"/>
     </row>
-    <row r="492" spans="1:15">
+    <row r="492" spans="1:15" ht="12.75">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -10686,7 +10686,7 @@
       <c r="N492" s="1"/>
       <c r="O492" s="1"/>
     </row>
-    <row r="493" spans="1:15">
+    <row r="493" spans="1:15" ht="12.75">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -10703,7 +10703,7 @@
       <c r="N493" s="1"/>
       <c r="O493" s="1"/>
     </row>
-    <row r="494" spans="1:15">
+    <row r="494" spans="1:15" ht="12.75">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -10720,7 +10720,7 @@
       <c r="N494" s="1"/>
       <c r="O494" s="1"/>
     </row>
-    <row r="495" spans="1:15">
+    <row r="495" spans="1:15" ht="12.75">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -10737,7 +10737,7 @@
       <c r="N495" s="1"/>
       <c r="O495" s="1"/>
     </row>
-    <row r="496" spans="1:15">
+    <row r="496" spans="1:15" ht="12.75">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -10754,7 +10754,7 @@
       <c r="N496" s="1"/>
       <c r="O496" s="1"/>
     </row>
-    <row r="497" spans="1:15">
+    <row r="497" spans="1:15" ht="12.75">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -10771,7 +10771,7 @@
       <c r="N497" s="1"/>
       <c r="O497" s="1"/>
     </row>
-    <row r="498" spans="1:15">
+    <row r="498" spans="1:15" ht="12.75">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -10788,7 +10788,7 @@
       <c r="N498" s="1"/>
       <c r="O498" s="1"/>
     </row>
-    <row r="499" spans="1:15">
+    <row r="499" spans="1:15" ht="12.75">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -10805,7 +10805,7 @@
       <c r="N499" s="1"/>
       <c r="O499" s="1"/>
     </row>
-    <row r="500" spans="1:15">
+    <row r="500" spans="1:15" ht="12.75">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -10822,7 +10822,7 @@
       <c r="N500" s="1"/>
       <c r="O500" s="1"/>
     </row>
-    <row r="501" spans="1:15">
+    <row r="501" spans="1:15" ht="12.75">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -10839,7 +10839,7 @@
       <c r="N501" s="1"/>
       <c r="O501" s="1"/>
     </row>
-    <row r="502" spans="1:15">
+    <row r="502" spans="1:15" ht="12.75">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -10856,7 +10856,7 @@
       <c r="N502" s="1"/>
       <c r="O502" s="1"/>
     </row>
-    <row r="503" spans="1:15">
+    <row r="503" spans="1:15" ht="12.75">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -10873,7 +10873,7 @@
       <c r="N503" s="1"/>
       <c r="O503" s="1"/>
     </row>
-    <row r="504" spans="1:15">
+    <row r="504" spans="1:15" ht="12.75">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -10890,7 +10890,7 @@
       <c r="N504" s="1"/>
       <c r="O504" s="1"/>
     </row>
-    <row r="505" spans="1:15">
+    <row r="505" spans="1:15" ht="12.75">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -10907,7 +10907,7 @@
       <c r="N505" s="1"/>
       <c r="O505" s="1"/>
     </row>
-    <row r="506" spans="1:15">
+    <row r="506" spans="1:15" ht="12.75">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -10924,7 +10924,7 @@
       <c r="N506" s="1"/>
       <c r="O506" s="1"/>
     </row>
-    <row r="507" spans="1:15">
+    <row r="507" spans="1:15" ht="12.75">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -10941,7 +10941,7 @@
       <c r="N507" s="1"/>
       <c r="O507" s="1"/>
     </row>
-    <row r="508" spans="1:15">
+    <row r="508" spans="1:15" ht="12.75">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -10958,7 +10958,7 @@
       <c r="N508" s="1"/>
       <c r="O508" s="1"/>
     </row>
-    <row r="509" spans="1:15">
+    <row r="509" spans="1:15" ht="12.75">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -10975,7 +10975,7 @@
       <c r="N509" s="1"/>
       <c r="O509" s="1"/>
     </row>
-    <row r="510" spans="1:15">
+    <row r="510" spans="1:15" ht="12.75">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -10992,7 +10992,7 @@
       <c r="N510" s="1"/>
       <c r="O510" s="1"/>
     </row>
-    <row r="511" spans="1:15">
+    <row r="511" spans="1:15" ht="12.75">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -11009,7 +11009,7 @@
       <c r="N511" s="1"/>
       <c r="O511" s="1"/>
     </row>
-    <row r="512" spans="1:15">
+    <row r="512" spans="1:15" ht="12.75">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -11026,7 +11026,7 @@
       <c r="N512" s="1"/>
       <c r="O512" s="1"/>
     </row>
-    <row r="513" spans="1:15">
+    <row r="513" spans="1:15" ht="12.75">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -11043,7 +11043,7 @@
       <c r="N513" s="1"/>
       <c r="O513" s="1"/>
     </row>
-    <row r="514" spans="1:15">
+    <row r="514" spans="1:15" ht="12.75">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -11060,7 +11060,7 @@
       <c r="N514" s="1"/>
       <c r="O514" s="1"/>
     </row>
-    <row r="515" spans="1:15">
+    <row r="515" spans="1:15" ht="12.75">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -11077,7 +11077,7 @@
       <c r="N515" s="1"/>
       <c r="O515" s="1"/>
     </row>
-    <row r="516" spans="1:15">
+    <row r="516" spans="1:15" ht="12.75">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -11094,7 +11094,7 @@
       <c r="N516" s="1"/>
       <c r="O516" s="1"/>
     </row>
-    <row r="517" spans="1:15">
+    <row r="517" spans="1:15" ht="12.75">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -11111,7 +11111,7 @@
       <c r="N517" s="1"/>
       <c r="O517" s="1"/>
     </row>
-    <row r="518" spans="1:15">
+    <row r="518" spans="1:15" ht="12.75">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -11128,7 +11128,7 @@
       <c r="N518" s="1"/>
       <c r="O518" s="1"/>
     </row>
-    <row r="519" spans="1:15">
+    <row r="519" spans="1:15" ht="12.75">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -11145,7 +11145,7 @@
       <c r="N519" s="1"/>
       <c r="O519" s="1"/>
     </row>
-    <row r="520" spans="1:15">
+    <row r="520" spans="1:15" ht="12.75">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -11162,7 +11162,7 @@
       <c r="N520" s="1"/>
       <c r="O520" s="1"/>
     </row>
-    <row r="521" spans="1:15">
+    <row r="521" spans="1:15" ht="12.75">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -11179,7 +11179,7 @@
       <c r="N521" s="1"/>
       <c r="O521" s="1"/>
     </row>
-    <row r="522" spans="1:15">
+    <row r="522" spans="1:15" ht="12.75">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -11196,7 +11196,7 @@
       <c r="N522" s="1"/>
       <c r="O522" s="1"/>
     </row>
-    <row r="523" spans="1:15">
+    <row r="523" spans="1:15" ht="12.75">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -11213,7 +11213,7 @@
       <c r="N523" s="1"/>
       <c r="O523" s="1"/>
     </row>
-    <row r="524" spans="1:15">
+    <row r="524" spans="1:15" ht="12.75">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -11230,7 +11230,7 @@
       <c r="N524" s="1"/>
       <c r="O524" s="1"/>
     </row>
-    <row r="525" spans="1:15">
+    <row r="525" spans="1:15" ht="12.75">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -11247,7 +11247,7 @@
       <c r="N525" s="1"/>
       <c r="O525" s="1"/>
     </row>
-    <row r="526" spans="1:15">
+    <row r="526" spans="1:15" ht="12.75">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -11264,7 +11264,7 @@
       <c r="N526" s="1"/>
       <c r="O526" s="1"/>
     </row>
-    <row r="527" spans="1:15">
+    <row r="527" spans="1:15" ht="12.75">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -11281,7 +11281,7 @@
       <c r="N527" s="1"/>
       <c r="O527" s="1"/>
     </row>
-    <row r="528" spans="1:15">
+    <row r="528" spans="1:15" ht="12.75">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -11298,7 +11298,7 @@
       <c r="N528" s="1"/>
       <c r="O528" s="1"/>
     </row>
-    <row r="529" spans="1:15">
+    <row r="529" spans="1:15" ht="12.75">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -11315,7 +11315,7 @@
       <c r="N529" s="1"/>
       <c r="O529" s="1"/>
     </row>
-    <row r="530" spans="1:15">
+    <row r="530" spans="1:15" ht="12.75">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -11332,7 +11332,7 @@
       <c r="N530" s="1"/>
       <c r="O530" s="1"/>
     </row>
-    <row r="531" spans="1:15">
+    <row r="531" spans="1:15" ht="12.75">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -11349,7 +11349,7 @@
       <c r="N531" s="1"/>
       <c r="O531" s="1"/>
     </row>
-    <row r="532" spans="1:15">
+    <row r="532" spans="1:15" ht="12.75">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -11366,7 +11366,7 @@
       <c r="N532" s="1"/>
       <c r="O532" s="1"/>
     </row>
-    <row r="533" spans="1:15">
+    <row r="533" spans="1:15" ht="12.75">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -11383,7 +11383,7 @@
       <c r="N533" s="1"/>
       <c r="O533" s="1"/>
     </row>
-    <row r="534" spans="1:15">
+    <row r="534" spans="1:15" ht="12.75">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -11400,7 +11400,7 @@
       <c r="N534" s="1"/>
       <c r="O534" s="1"/>
     </row>
-    <row r="535" spans="1:15">
+    <row r="535" spans="1:15" ht="12.75">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -11417,7 +11417,7 @@
       <c r="N535" s="1"/>
       <c r="O535" s="1"/>
     </row>
-    <row r="536" spans="1:15">
+    <row r="536" spans="1:15" ht="12.75">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -11434,7 +11434,7 @@
       <c r="N536" s="1"/>
       <c r="O536" s="1"/>
     </row>
-    <row r="537" spans="1:15">
+    <row r="537" spans="1:15" ht="12.75">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -11451,7 +11451,7 @@
       <c r="N537" s="1"/>
       <c r="O537" s="1"/>
     </row>
-    <row r="538" spans="1:15">
+    <row r="538" spans="1:15" ht="12.75">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -11468,7 +11468,7 @@
       <c r="N538" s="1"/>
       <c r="O538" s="1"/>
     </row>
-    <row r="539" spans="1:15">
+    <row r="539" spans="1:15" ht="12.75">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -11485,7 +11485,7 @@
       <c r="N539" s="1"/>
       <c r="O539" s="1"/>
     </row>
-    <row r="540" spans="1:15">
+    <row r="540" spans="1:15" ht="12.75">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -11502,7 +11502,7 @@
       <c r="N540" s="1"/>
       <c r="O540" s="1"/>
     </row>
-    <row r="541" spans="1:15">
+    <row r="541" spans="1:15" ht="12.75">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -11519,7 +11519,7 @@
       <c r="N541" s="1"/>
       <c r="O541" s="1"/>
     </row>
-    <row r="542" spans="1:15">
+    <row r="542" spans="1:15" ht="12.75">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -11536,7 +11536,7 @@
       <c r="N542" s="1"/>
       <c r="O542" s="1"/>
     </row>
-    <row r="543" spans="1:15">
+    <row r="543" spans="1:15" ht="12.75">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -11553,7 +11553,7 @@
       <c r="N543" s="1"/>
       <c r="O543" s="1"/>
     </row>
-    <row r="544" spans="1:15">
+    <row r="544" spans="1:15" ht="12.75">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -11570,7 +11570,7 @@
       <c r="N544" s="1"/>
       <c r="O544" s="1"/>
     </row>
-    <row r="545" spans="1:15">
+    <row r="545" spans="1:15" ht="12.75">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -11587,7 +11587,7 @@
       <c r="N545" s="1"/>
       <c r="O545" s="1"/>
     </row>
-    <row r="546" spans="1:15">
+    <row r="546" spans="1:15" ht="12.75">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -11604,7 +11604,7 @@
       <c r="N546" s="1"/>
       <c r="O546" s="1"/>
     </row>
-    <row r="547" spans="1:15">
+    <row r="547" spans="1:15" ht="12.75">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -11621,7 +11621,7 @@
       <c r="N547" s="1"/>
       <c r="O547" s="1"/>
     </row>
-    <row r="548" spans="1:15">
+    <row r="548" spans="1:15" ht="12.75">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -11638,7 +11638,7 @@
       <c r="N548" s="1"/>
       <c r="O548" s="1"/>
     </row>
-    <row r="549" spans="1:15">
+    <row r="549" spans="1:15" ht="12.75">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -11655,7 +11655,7 @@
       <c r="N549" s="1"/>
       <c r="O549" s="1"/>
     </row>
-    <row r="550" spans="1:15">
+    <row r="550" spans="1:15" ht="12.75">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -11672,7 +11672,7 @@
       <c r="N550" s="1"/>
       <c r="O550" s="1"/>
     </row>
-    <row r="551" spans="1:15">
+    <row r="551" spans="1:15" ht="12.75">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -11689,7 +11689,7 @@
       <c r="N551" s="1"/>
       <c r="O551" s="1"/>
     </row>
-    <row r="552" spans="1:15">
+    <row r="552" spans="1:15" ht="12.75">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -11706,7 +11706,7 @@
       <c r="N552" s="1"/>
       <c r="O552" s="1"/>
     </row>
-    <row r="553" spans="1:15">
+    <row r="553" spans="1:15" ht="12.75">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -11723,7 +11723,7 @@
       <c r="N553" s="1"/>
       <c r="O553" s="1"/>
     </row>
-    <row r="554" spans="1:15">
+    <row r="554" spans="1:15" ht="12.75">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -11740,7 +11740,7 @@
       <c r="N554" s="1"/>
       <c r="O554" s="1"/>
     </row>
-    <row r="555" spans="1:15">
+    <row r="555" spans="1:15" ht="12.75">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -11757,7 +11757,7 @@
       <c r="N555" s="1"/>
       <c r="O555" s="1"/>
     </row>
-    <row r="556" spans="1:15">
+    <row r="556" spans="1:15" ht="12.75">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -11774,7 +11774,7 @@
       <c r="N556" s="1"/>
       <c r="O556" s="1"/>
     </row>
-    <row r="557" spans="1:15">
+    <row r="557" spans="1:15" ht="12.75">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -11791,7 +11791,7 @@
       <c r="N557" s="1"/>
       <c r="O557" s="1"/>
     </row>
-    <row r="558" spans="1:15">
+    <row r="558" spans="1:15" ht="12.75">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -11808,7 +11808,7 @@
       <c r="N558" s="1"/>
       <c r="O558" s="1"/>
     </row>
-    <row r="559" spans="1:15">
+    <row r="559" spans="1:15" ht="12.75">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -11825,7 +11825,7 @@
       <c r="N559" s="1"/>
       <c r="O559" s="1"/>
     </row>
-    <row r="560" spans="1:15">
+    <row r="560" spans="1:15" ht="12.75">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -11842,7 +11842,7 @@
       <c r="N560" s="1"/>
       <c r="O560" s="1"/>
     </row>
-    <row r="561" spans="1:15">
+    <row r="561" spans="1:15" ht="12.75">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -11859,7 +11859,7 @@
       <c r="N561" s="1"/>
       <c r="O561" s="1"/>
     </row>
-    <row r="562" spans="1:15">
+    <row r="562" spans="1:15" ht="12.75">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -11876,7 +11876,7 @@
       <c r="N562" s="1"/>
       <c r="O562" s="1"/>
     </row>
-    <row r="563" spans="1:15">
+    <row r="563" spans="1:15" ht="12.75">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -11893,7 +11893,7 @@
       <c r="N563" s="1"/>
       <c r="O563" s="1"/>
     </row>
-    <row r="564" spans="1:15">
+    <row r="564" spans="1:15" ht="12.75">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -11910,7 +11910,7 @@
       <c r="N564" s="1"/>
       <c r="O564" s="1"/>
     </row>
-    <row r="565" spans="1:15">
+    <row r="565" spans="1:15" ht="12.75">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -11927,7 +11927,7 @@
       <c r="N565" s="1"/>
       <c r="O565" s="1"/>
     </row>
-    <row r="566" spans="1:15">
+    <row r="566" spans="1:15" ht="12.75">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -11944,7 +11944,7 @@
       <c r="N566" s="1"/>
       <c r="O566" s="1"/>
     </row>
-    <row r="567" spans="1:15">
+    <row r="567" spans="1:15" ht="12.75">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -11961,7 +11961,7 @@
       <c r="N567" s="1"/>
       <c r="O567" s="1"/>
     </row>
-    <row r="568" spans="1:15">
+    <row r="568" spans="1:15" ht="12.75">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -11978,7 +11978,7 @@
       <c r="N568" s="1"/>
       <c r="O568" s="1"/>
     </row>
-    <row r="569" spans="1:15">
+    <row r="569" spans="1:15" ht="12.75">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -11995,7 +11995,7 @@
       <c r="N569" s="1"/>
       <c r="O569" s="1"/>
     </row>
-    <row r="570" spans="1:15">
+    <row r="570" spans="1:15" ht="12.75">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -12012,7 +12012,7 @@
       <c r="N570" s="1"/>
       <c r="O570" s="1"/>
     </row>
-    <row r="571" spans="1:15">
+    <row r="571" spans="1:15" ht="12.75">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -12029,7 +12029,7 @@
       <c r="N571" s="1"/>
       <c r="O571" s="1"/>
     </row>
-    <row r="572" spans="1:15">
+    <row r="572" spans="1:15" ht="12.75">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -12046,7 +12046,7 @@
       <c r="N572" s="1"/>
       <c r="O572" s="1"/>
     </row>
-    <row r="573" spans="1:15">
+    <row r="573" spans="1:15" ht="12.75">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -12063,7 +12063,7 @@
       <c r="N573" s="1"/>
       <c r="O573" s="1"/>
     </row>
-    <row r="574" spans="1:15">
+    <row r="574" spans="1:15" ht="12.75">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -12080,7 +12080,7 @@
       <c r="N574" s="1"/>
       <c r="O574" s="1"/>
     </row>
-    <row r="575" spans="1:15">
+    <row r="575" spans="1:15" ht="12.75">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -12097,7 +12097,7 @@
       <c r="N575" s="1"/>
       <c r="O575" s="1"/>
     </row>
-    <row r="576" spans="1:15">
+    <row r="576" spans="1:15" ht="12.75">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -12114,7 +12114,7 @@
       <c r="N576" s="1"/>
       <c r="O576" s="1"/>
     </row>
-    <row r="577" spans="1:15">
+    <row r="577" spans="1:15" ht="12.75">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -12131,7 +12131,7 @@
       <c r="N577" s="1"/>
       <c r="O577" s="1"/>
     </row>
-    <row r="578" spans="1:15">
+    <row r="578" spans="1:15" ht="12.75">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -12148,7 +12148,7 @@
       <c r="N578" s="1"/>
       <c r="O578" s="1"/>
     </row>
-    <row r="579" spans="1:15">
+    <row r="579" spans="1:15" ht="12.75">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -12165,7 +12165,7 @@
       <c r="N579" s="1"/>
       <c r="O579" s="1"/>
     </row>
-    <row r="580" spans="1:15">
+    <row r="580" spans="1:15" ht="12.75">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -12182,7 +12182,7 @@
       <c r="N580" s="1"/>
       <c r="O580" s="1"/>
     </row>
-    <row r="581" spans="1:15">
+    <row r="581" spans="1:15" ht="12.75">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -12199,7 +12199,7 @@
       <c r="N581" s="1"/>
       <c r="O581" s="1"/>
     </row>
-    <row r="582" spans="1:15">
+    <row r="582" spans="1:15" ht="12.75">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -12216,7 +12216,7 @@
       <c r="N582" s="1"/>
       <c r="O582" s="1"/>
     </row>
-    <row r="583" spans="1:15">
+    <row r="583" spans="1:15" ht="12.75">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -12233,7 +12233,7 @@
       <c r="N583" s="1"/>
       <c r="O583" s="1"/>
     </row>
-    <row r="584" spans="1:15">
+    <row r="584" spans="1:15" ht="12.75">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -12250,7 +12250,7 @@
       <c r="N584" s="1"/>
       <c r="O584" s="1"/>
     </row>
-    <row r="585" spans="1:15">
+    <row r="585" spans="1:15" ht="12.75">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -12267,7 +12267,7 @@
       <c r="N585" s="1"/>
       <c r="O585" s="1"/>
     </row>
-    <row r="586" spans="1:15">
+    <row r="586" spans="1:15" ht="12.75">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -12284,7 +12284,7 @@
       <c r="N586" s="1"/>
       <c r="O586" s="1"/>
     </row>
-    <row r="587" spans="1:15">
+    <row r="587" spans="1:15" ht="12.75">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -12301,7 +12301,7 @@
       <c r="N587" s="1"/>
       <c r="O587" s="1"/>
     </row>
-    <row r="588" spans="1:15">
+    <row r="588" spans="1:15" ht="12.75">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -12318,7 +12318,7 @@
       <c r="N588" s="1"/>
       <c r="O588" s="1"/>
     </row>
-    <row r="589" spans="1:15">
+    <row r="589" spans="1:15" ht="12.75">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -12335,7 +12335,7 @@
       <c r="N589" s="1"/>
       <c r="O589" s="1"/>
     </row>
-    <row r="590" spans="1:15">
+    <row r="590" spans="1:15" ht="12.75">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -12352,7 +12352,7 @@
       <c r="N590" s="1"/>
       <c r="O590" s="1"/>
     </row>
-    <row r="591" spans="1:15">
+    <row r="591" spans="1:15" ht="12.75">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -12369,7 +12369,7 @@
       <c r="N591" s="1"/>
       <c r="O591" s="1"/>
     </row>
-    <row r="592" spans="1:15">
+    <row r="592" spans="1:15" ht="12.75">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -12386,7 +12386,7 @@
       <c r="N592" s="1"/>
       <c r="O592" s="1"/>
     </row>
-    <row r="593" spans="1:15">
+    <row r="593" spans="1:15" ht="12.75">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -12403,7 +12403,7 @@
       <c r="N593" s="1"/>
       <c r="O593" s="1"/>
     </row>
-    <row r="594" spans="1:15">
+    <row r="594" spans="1:15" ht="12.75">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -12420,7 +12420,7 @@
       <c r="N594" s="1"/>
       <c r="O594" s="1"/>
     </row>
-    <row r="595" spans="1:15">
+    <row r="595" spans="1:15" ht="12.75">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -12437,7 +12437,7 @@
       <c r="N595" s="1"/>
       <c r="O595" s="1"/>
     </row>
-    <row r="596" spans="1:15">
+    <row r="596" spans="1:15" ht="12.75">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -12454,7 +12454,7 @@
       <c r="N596" s="1"/>
       <c r="O596" s="1"/>
     </row>
-    <row r="597" spans="1:15">
+    <row r="597" spans="1:15" ht="12.75">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -12471,7 +12471,7 @@
       <c r="N597" s="1"/>
       <c r="O597" s="1"/>
     </row>
-    <row r="598" spans="1:15">
+    <row r="598" spans="1:15" ht="12.75">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -12488,7 +12488,7 @@
       <c r="N598" s="1"/>
       <c r="O598" s="1"/>
     </row>
-    <row r="599" spans="1:15">
+    <row r="599" spans="1:15" ht="12.75">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -12505,7 +12505,7 @@
       <c r="N599" s="1"/>
       <c r="O599" s="1"/>
     </row>
-    <row r="600" spans="1:15">
+    <row r="600" spans="1:15" ht="12.75">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -12522,7 +12522,7 @@
       <c r="N600" s="1"/>
       <c r="O600" s="1"/>
     </row>
-    <row r="601" spans="1:15">
+    <row r="601" spans="1:15" ht="12.75">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -12539,7 +12539,7 @@
       <c r="N601" s="1"/>
       <c r="O601" s="1"/>
     </row>
-    <row r="602" spans="1:15">
+    <row r="602" spans="1:15" ht="12.75">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -12556,7 +12556,7 @@
       <c r="N602" s="1"/>
       <c r="O602" s="1"/>
     </row>
-    <row r="603" spans="1:15">
+    <row r="603" spans="1:15" ht="12.75">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -12573,7 +12573,7 @@
       <c r="N603" s="1"/>
       <c r="O603" s="1"/>
     </row>
-    <row r="604" spans="1:15">
+    <row r="604" spans="1:15" ht="12.75">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -12590,7 +12590,7 @@
       <c r="N604" s="1"/>
       <c r="O604" s="1"/>
     </row>
-    <row r="605" spans="1:15">
+    <row r="605" spans="1:15" ht="12.75">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -12607,7 +12607,7 @@
       <c r="N605" s="1"/>
       <c r="O605" s="1"/>
     </row>
-    <row r="606" spans="1:15">
+    <row r="606" spans="1:15" ht="12.75">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -12624,7 +12624,7 @@
       <c r="N606" s="1"/>
       <c r="O606" s="1"/>
     </row>
-    <row r="607" spans="1:15">
+    <row r="607" spans="1:15" ht="12.75">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -12641,7 +12641,7 @@
       <c r="N607" s="1"/>
       <c r="O607" s="1"/>
     </row>
-    <row r="608" spans="1:15">
+    <row r="608" spans="1:15" ht="12.75">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -12658,7 +12658,7 @@
       <c r="N608" s="1"/>
       <c r="O608" s="1"/>
     </row>
-    <row r="609" spans="1:15">
+    <row r="609" spans="1:15" ht="12.75">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -12675,7 +12675,7 @@
       <c r="N609" s="1"/>
       <c r="O609" s="1"/>
     </row>
-    <row r="610" spans="1:15">
+    <row r="610" spans="1:15" ht="12.75">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -12692,7 +12692,7 @@
       <c r="N610" s="1"/>
       <c r="O610" s="1"/>
     </row>
-    <row r="611" spans="1:15">
+    <row r="611" spans="1:15" ht="12.75">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -12709,7 +12709,7 @@
       <c r="N611" s="1"/>
       <c r="O611" s="1"/>
     </row>
-    <row r="612" spans="1:15">
+    <row r="612" spans="1:15" ht="12.75">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -12726,7 +12726,7 @@
       <c r="N612" s="1"/>
       <c r="O612" s="1"/>
     </row>
-    <row r="613" spans="1:15">
+    <row r="613" spans="1:15" ht="12.75">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -12743,7 +12743,7 @@
       <c r="N613" s="1"/>
       <c r="O613" s="1"/>
     </row>
-    <row r="614" spans="1:15">
+    <row r="614" spans="1:15" ht="12.75">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -12760,7 +12760,7 @@
       <c r="N614" s="1"/>
       <c r="O614" s="1"/>
     </row>
-    <row r="615" spans="1:15">
+    <row r="615" spans="1:15" ht="12.75">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -12777,7 +12777,7 @@
       <c r="N615" s="1"/>
       <c r="O615" s="1"/>
     </row>
-    <row r="616" spans="1:15">
+    <row r="616" spans="1:15" ht="12.75">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -12794,7 +12794,7 @@
       <c r="N616" s="1"/>
       <c r="O616" s="1"/>
     </row>
-    <row r="617" spans="1:15">
+    <row r="617" spans="1:15" ht="12.75">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -12811,7 +12811,7 @@
       <c r="N617" s="1"/>
       <c r="O617" s="1"/>
     </row>
-    <row r="618" spans="1:15">
+    <row r="618" spans="1:15" ht="12.75">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -12828,7 +12828,7 @@
       <c r="N618" s="1"/>
       <c r="O618" s="1"/>
     </row>
-    <row r="619" spans="1:15">
+    <row r="619" spans="1:15" ht="12.75">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -12845,7 +12845,7 @@
       <c r="N619" s="1"/>
       <c r="O619" s="1"/>
     </row>
-    <row r="620" spans="1:15">
+    <row r="620" spans="1:15" ht="12.75">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -12862,7 +12862,7 @@
       <c r="N620" s="1"/>
       <c r="O620" s="1"/>
     </row>
-    <row r="621" spans="1:15">
+    <row r="621" spans="1:15" ht="12.75">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -12879,7 +12879,7 @@
       <c r="N621" s="1"/>
       <c r="O621" s="1"/>
     </row>
-    <row r="622" spans="1:15">
+    <row r="622" spans="1:15" ht="12.75">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -12896,7 +12896,7 @@
       <c r="N622" s="1"/>
       <c r="O622" s="1"/>
     </row>
-    <row r="623" spans="1:15">
+    <row r="623" spans="1:15" ht="12.75">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -12913,7 +12913,7 @@
       <c r="N623" s="1"/>
       <c r="O623" s="1"/>
     </row>
-    <row r="624" spans="1:15">
+    <row r="624" spans="1:15" ht="12.75">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -12930,7 +12930,7 @@
       <c r="N624" s="1"/>
       <c r="O624" s="1"/>
     </row>
-    <row r="625" spans="1:15">
+    <row r="625" spans="1:15" ht="12.75">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -12947,7 +12947,7 @@
       <c r="N625" s="1"/>
       <c r="O625" s="1"/>
     </row>
-    <row r="626" spans="1:15">
+    <row r="626" spans="1:15" ht="12.75">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -12964,7 +12964,7 @@
       <c r="N626" s="1"/>
       <c r="O626" s="1"/>
     </row>
-    <row r="627" spans="1:15">
+    <row r="627" spans="1:15" ht="12.75">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -12981,7 +12981,7 @@
       <c r="N627" s="1"/>
       <c r="O627" s="1"/>
     </row>
-    <row r="628" spans="1:15">
+    <row r="628" spans="1:15" ht="12.75">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -12998,7 +12998,7 @@
       <c r="N628" s="1"/>
       <c r="O628" s="1"/>
     </row>
-    <row r="629" spans="1:15">
+    <row r="629" spans="1:15" ht="12.75">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -13015,7 +13015,7 @@
       <c r="N629" s="1"/>
       <c r="O629" s="1"/>
     </row>
-    <row r="630" spans="1:15">
+    <row r="630" spans="1:15" ht="12.75">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -13032,7 +13032,7 @@
       <c r="N630" s="1"/>
       <c r="O630" s="1"/>
     </row>
-    <row r="631" spans="1:15">
+    <row r="631" spans="1:15" ht="12.75">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -13049,7 +13049,7 @@
       <c r="N631" s="1"/>
       <c r="O631" s="1"/>
     </row>
-    <row r="632" spans="1:15">
+    <row r="632" spans="1:15" ht="12.75">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -13066,7 +13066,7 @@
       <c r="N632" s="1"/>
       <c r="O632" s="1"/>
     </row>
-    <row r="633" spans="1:15">
+    <row r="633" spans="1:15" ht="12.75">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -13083,7 +13083,7 @@
       <c r="N633" s="1"/>
       <c r="O633" s="1"/>
     </row>
-    <row r="634" spans="1:15">
+    <row r="634" spans="1:15" ht="12.75">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -13100,7 +13100,7 @@
       <c r="N634" s="1"/>
       <c r="O634" s="1"/>
     </row>
-    <row r="635" spans="1:15">
+    <row r="635" spans="1:15" ht="12.75">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -13117,7 +13117,7 @@
       <c r="N635" s="1"/>
       <c r="O635" s="1"/>
     </row>
-    <row r="636" spans="1:15">
+    <row r="636" spans="1:15" ht="12.75">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -13134,7 +13134,7 @@
       <c r="N636" s="1"/>
       <c r="O636" s="1"/>
     </row>
-    <row r="637" spans="1:15">
+    <row r="637" spans="1:15" ht="12.75">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -13151,7 +13151,7 @@
       <c r="N637" s="1"/>
       <c r="O637" s="1"/>
     </row>
-    <row r="638" spans="1:15">
+    <row r="638" spans="1:15" ht="12.75">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -13168,7 +13168,7 @@
       <c r="N638" s="1"/>
       <c r="O638" s="1"/>
     </row>
-    <row r="639" spans="1:15">
+    <row r="639" spans="1:15" ht="12.75">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -13185,7 +13185,7 @@
       <c r="N639" s="1"/>
       <c r="O639" s="1"/>
     </row>
-    <row r="640" spans="1:15">
+    <row r="640" spans="1:15" ht="12.75">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -13202,7 +13202,7 @@
       <c r="N640" s="1"/>
       <c r="O640" s="1"/>
     </row>
-    <row r="641" spans="1:15">
+    <row r="641" spans="1:15" ht="12.75">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -13219,7 +13219,7 @@
       <c r="N641" s="1"/>
       <c r="O641" s="1"/>
     </row>
-    <row r="642" spans="1:15">
+    <row r="642" spans="1:15" ht="12.75">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -13236,7 +13236,7 @@
       <c r="N642" s="1"/>
       <c r="O642" s="1"/>
     </row>
-    <row r="643" spans="1:15">
+    <row r="643" spans="1:15" ht="12.75">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -13253,7 +13253,7 @@
       <c r="N643" s="1"/>
       <c r="O643" s="1"/>
     </row>
-    <row r="644" spans="1:15">
+    <row r="644" spans="1:15" ht="12.75">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -13270,7 +13270,7 @@
       <c r="N644" s="1"/>
       <c r="O644" s="1"/>
     </row>
-    <row r="645" spans="1:15">
+    <row r="645" spans="1:15" ht="12.75">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -13287,7 +13287,7 @@
       <c r="N645" s="1"/>
       <c r="O645" s="1"/>
     </row>
-    <row r="646" spans="1:15">
+    <row r="646" spans="1:15" ht="12.75">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -13304,7 +13304,7 @@
       <c r="N646" s="1"/>
       <c r="O646" s="1"/>
     </row>
-    <row r="647" spans="1:15">
+    <row r="647" spans="1:15" ht="12.75">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -13321,7 +13321,7 @@
       <c r="N647" s="1"/>
       <c r="O647" s="1"/>
     </row>
-    <row r="648" spans="1:15">
+    <row r="648" spans="1:15" ht="12.75">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -13338,7 +13338,7 @@
       <c r="N648" s="1"/>
       <c r="O648" s="1"/>
     </row>
-    <row r="649" spans="1:15">
+    <row r="649" spans="1:15" ht="12.75">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -13355,7 +13355,7 @@
       <c r="N649" s="1"/>
       <c r="O649" s="1"/>
     </row>
-    <row r="650" spans="1:15">
+    <row r="650" spans="1:15" ht="12.75">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -13372,7 +13372,7 @@
       <c r="N650" s="1"/>
       <c r="O650" s="1"/>
     </row>
-    <row r="651" spans="1:15">
+    <row r="651" spans="1:15" ht="12.75">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -13389,7 +13389,7 @@
       <c r="N651" s="1"/>
       <c r="O651" s="1"/>
     </row>
-    <row r="652" spans="1:15">
+    <row r="652" spans="1:15" ht="12.75">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -13406,7 +13406,7 @@
       <c r="N652" s="1"/>
       <c r="O652" s="1"/>
     </row>
-    <row r="653" spans="1:15">
+    <row r="653" spans="1:15" ht="12.75">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -13423,7 +13423,7 @@
       <c r="N653" s="1"/>
       <c r="O653" s="1"/>
     </row>
-    <row r="654" spans="1:15">
+    <row r="654" spans="1:15" ht="12.75">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -13440,7 +13440,7 @@
       <c r="N654" s="1"/>
       <c r="O654" s="1"/>
     </row>
-    <row r="655" spans="1:15">
+    <row r="655" spans="1:15" ht="12.75">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -13457,7 +13457,7 @@
       <c r="N655" s="1"/>
       <c r="O655" s="1"/>
     </row>
-    <row r="656" spans="1:15">
+    <row r="656" spans="1:15" ht="12.75">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -13474,7 +13474,7 @@
       <c r="N656" s="1"/>
       <c r="O656" s="1"/>
     </row>
-    <row r="657" spans="1:15">
+    <row r="657" spans="1:15" ht="12.75">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -13491,7 +13491,7 @@
       <c r="N657" s="1"/>
       <c r="O657" s="1"/>
     </row>
-    <row r="658" spans="1:15">
+    <row r="658" spans="1:15" ht="12.75">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -13508,7 +13508,7 @@
       <c r="N658" s="1"/>
       <c r="O658" s="1"/>
     </row>
-    <row r="659" spans="1:15">
+    <row r="659" spans="1:15" ht="12.75">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -13525,7 +13525,7 @@
       <c r="N659" s="1"/>
       <c r="O659" s="1"/>
     </row>
-    <row r="660" spans="1:15">
+    <row r="660" spans="1:15" ht="12.75">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -13544,12 +13544,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D38:E38"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A73:B80"/>
     <mergeCell ref="G4:H4"/>
@@ -13566,6 +13560,12 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
